--- a/dropping.xlsx
+++ b/dropping.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>02/09/10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/08/2002</t>
+          <t>02/08/10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
